--- a/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
+++ b/Descargas/R15_2º Juzgado De Garantia De Santiago_Ingresos Causas Por Materia_2020-Febrero.xlsx
@@ -291,7 +291,7 @@
         </is>
       </c>
       <c r="B9" s="65">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B36" s="65">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37">
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B39" s="65">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40">
@@ -897,7 +897,7 @@
     <row r="70">
       <c t="inlineStr" r="A70">
         <is>
-          <t xml:space="preserve">Matar Carabinero En Ejercicio De Funciones, Justicia Militar</t>
+          <t xml:space="preserve">March Sit  Suc Sin Prest Aux Víctima. Art 195 Inc 2° Y 3°</t>
         </is>
       </c>
       <c r="B70" s="65">
@@ -907,27 +907,27 @@
     <row r="71">
       <c t="inlineStr" r="A71">
         <is>
-          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
+          <t xml:space="preserve">Matar Carabinero En Ejercicio De Funciones, Justicia Militar</t>
         </is>
       </c>
       <c r="B71" s="65">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c t="inlineStr" r="A72">
         <is>
-          <t xml:space="preserve">No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
+          <t xml:space="preserve">Muertes Y Hallazgo De Cadaver.</t>
         </is>
       </c>
       <c r="B72" s="65">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73">
       <c t="inlineStr" r="A73">
         <is>
-          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
+          <t xml:space="preserve">No Dar Cuenta De Accidente De Transitoart. 195Ley De Tra.</t>
         </is>
       </c>
       <c r="B73" s="65">
@@ -937,47 +937,47 @@
     <row r="74">
       <c t="inlineStr" r="A74">
         <is>
-          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
+          <t xml:space="preserve">Ocultacion De Ident En Control Invest Art 496 N05 Art 85 Cpp</t>
         </is>
       </c>
       <c r="B74" s="65">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75">
       <c t="inlineStr" r="A75">
         <is>
-          <t xml:space="preserve">Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
+          <t xml:space="preserve">Ocultamiento De Placa Patente (Art. 192 Letra E)</t>
         </is>
       </c>
       <c r="B75" s="65">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c t="inlineStr" r="A76">
         <is>
-          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
+          <t xml:space="preserve">Oponerse A La Accion De La Autoridad Publica O Sus Agentes.</t>
         </is>
       </c>
       <c r="B76" s="65">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77">
       <c t="inlineStr" r="A77">
         <is>
-          <t xml:space="preserve">Otras Infracciones Al Csdigo De Justicia Militar.</t>
+          <t xml:space="preserve">Otras Faltas Codigo Penal.</t>
         </is>
       </c>
       <c r="B77" s="65">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78">
       <c t="inlineStr" r="A78">
         <is>
-          <t xml:space="preserve">Otros De Los Cuasidelitos</t>
+          <t xml:space="preserve">Otras Infracciones Al Csdigo De Justicia Militar.</t>
         </is>
       </c>
       <c r="B78" s="65">
@@ -987,7 +987,7 @@
     <row r="79">
       <c t="inlineStr" r="A79">
         <is>
-          <t xml:space="preserve">Otros Delit Contra La Fe Púb, Falsific., Falso Testim Y Perj</t>
+          <t xml:space="preserve">Otros De Los Cuasidelitos</t>
         </is>
       </c>
       <c r="B79" s="65">
@@ -997,7 +997,7 @@
     <row r="80">
       <c t="inlineStr" r="A80">
         <is>
-          <t xml:space="preserve">Otros Delit. Contra Orden Y Seg. Public Comet Por Particul</t>
+          <t xml:space="preserve">Otros Delit Contra La Fe Púb, Falsific., Falso Testim Y Perj</t>
         </is>
       </c>
       <c r="B80" s="65">
@@ -1007,27 +1007,27 @@
     <row r="81">
       <c t="inlineStr" r="A81">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Otros Delit. Contra Orden Y Seg. Public Comet Por Particul</t>
         </is>
       </c>
       <c r="B81" s="65">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
       <c t="inlineStr" r="A82">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B82" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83">
       <c t="inlineStr" r="A83">
         <is>
-          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
+          <t xml:space="preserve">Otros Delitos Contra Las Personas</t>
         </is>
       </c>
       <c r="B83" s="65">
@@ -1037,187 +1037,187 @@
     <row r="84">
       <c t="inlineStr" r="A84">
         <is>
-          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
+          <t xml:space="preserve">Otros Delitos De La Ley De Control De Armas (Ley 17.798)</t>
         </is>
       </c>
       <c r="B84" s="65">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c t="inlineStr" r="A85">
         <is>
-          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
+          <t xml:space="preserve">Otros Hechos Que No Constituyan Delito: Agrup.1008,1009,1011</t>
         </is>
       </c>
       <c r="B85" s="65">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c t="inlineStr" r="A86">
         <is>
-          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
+          <t xml:space="preserve">Portar Elemento Conocidamente Destinados Cometer Delito Robo</t>
         </is>
       </c>
       <c r="B86" s="65">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87">
       <c t="inlineStr" r="A87">
         <is>
-          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
+          <t xml:space="preserve">Porte De Arma Cortante O Punzante (288 Bis).</t>
         </is>
       </c>
       <c r="B87" s="65">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="88">
       <c t="inlineStr" r="A88">
         <is>
-          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
+          <t xml:space="preserve">Porte De Arma Prohibida (Art. 14 Inc. 1°)</t>
         </is>
       </c>
       <c r="B88" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89">
       <c t="inlineStr" r="A89">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Posesión O Tenencia De Armas Prohibidas</t>
         </is>
       </c>
       <c r="B89" s="65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90">
       <c t="inlineStr" r="A90">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B90" s="65">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91">
       <c t="inlineStr" r="A91">
         <is>
-          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B91" s="65">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c t="inlineStr" r="A92">
         <is>
-          <t xml:space="preserve">Presunta Desgracia.</t>
+          <t xml:space="preserve">Presunta Desgracia Infantil.</t>
         </is>
       </c>
       <c r="B92" s="65">
-        <v>115</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93">
       <c t="inlineStr" r="A93">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Presunta Desgracia.</t>
         </is>
       </c>
       <c r="B93" s="65">
-        <v>22</v>
+        <v>115</v>
       </c>
     </row>
     <row r="94">
       <c t="inlineStr" r="A94">
         <is>
-          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B94" s="65">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95">
       <c t="inlineStr" r="A95">
         <is>
-          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
+          <t xml:space="preserve">Receptación De Vehículos Motorizados</t>
         </is>
       </c>
       <c r="B95" s="65">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96">
       <c t="inlineStr" r="A96">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Riña Pública (496 Nº 10 Código Penal).</t>
         </is>
       </c>
       <c r="B96" s="65">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97">
       <c t="inlineStr" r="A97">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B97" s="65">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="98">
       <c t="inlineStr" r="A98">
         <is>
-          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B98" s="65">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99">
       <c t="inlineStr" r="A99">
         <is>
-          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
+          <t xml:space="preserve">Robo En Bienes Nacionales De Uso Publico O Sitiosno Destin.</t>
         </is>
       </c>
       <c r="B99" s="65">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100">
       <c t="inlineStr" r="A100">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo En Lugar Habitado O Destinado A La Habitacion.</t>
         </is>
       </c>
       <c r="B100" s="65">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101">
       <c t="inlineStr" r="A101">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B101" s="65">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102">
       <c t="inlineStr" r="A102">
         <is>
-          <t xml:space="preserve">Sabotaje Informático.</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B102" s="65">
@@ -1227,67 +1227,67 @@
     <row r="103">
       <c t="inlineStr" r="A103">
         <is>
-          <t xml:space="preserve">Saqueo</t>
+          <t xml:space="preserve">Sabotaje Informático.</t>
         </is>
       </c>
       <c r="B103" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104">
       <c t="inlineStr" r="A104">
         <is>
-          <t xml:space="preserve">Secuestro</t>
+          <t xml:space="preserve">Saqueo</t>
         </is>
       </c>
       <c r="B104" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
       <c t="inlineStr" r="A105">
         <is>
-          <t xml:space="preserve">Trafico De Migrantes  411 Bis Inciso 1, 2 Y 3</t>
+          <t xml:space="preserve">Secuestro</t>
         </is>
       </c>
       <c r="B105" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106">
       <c t="inlineStr" r="A106">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Trafico De Migrantes  411 Bis Inciso 1, 2 Y 3</t>
         </is>
       </c>
       <c r="B106" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
       <c t="inlineStr" r="A107">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
         </is>
       </c>
       <c r="B107" s="65">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108">
       <c t="inlineStr" r="A108">
         <is>
-          <t xml:space="preserve">Tráfico De Armas (Art. 10)</t>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
         </is>
       </c>
       <c r="B108" s="65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109">
       <c t="inlineStr" r="A109">
         <is>
-          <t xml:space="preserve">Ultraje Publico A Las Buenas Costumbres.</t>
+          <t xml:space="preserve">Tráfico De Armas (Art. 10)</t>
         </is>
       </c>
       <c r="B109" s="65">
@@ -1297,7 +1297,7 @@
     <row r="110">
       <c t="inlineStr" r="A110">
         <is>
-          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
+          <t xml:space="preserve">Ultraje Publico A Las Buenas Costumbres.</t>
         </is>
       </c>
       <c r="B110" s="65">
@@ -1307,7 +1307,7 @@
     <row r="111">
       <c t="inlineStr" r="A111">
         <is>
-          <t xml:space="preserve">Usurpacion De Nombre.</t>
+          <t xml:space="preserve">Uso Fraudulento De Tarjetas O Medios De Pago. Ley 20.009</t>
         </is>
       </c>
       <c r="B111" s="65">
@@ -1317,30 +1317,40 @@
     <row r="112">
       <c t="inlineStr" r="A112">
         <is>
-          <t xml:space="preserve">Violacion  De Morada.</t>
+          <t xml:space="preserve">Usurpacion De Nombre.</t>
         </is>
       </c>
       <c r="B112" s="65">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c t="inlineStr" r="A113">
         <is>
-          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+          <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
       <c r="B113" s="65">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114">
       <c t="inlineStr" r="A114">
         <is>
+          <t xml:space="preserve">Violacion De Menor De 14 Años.</t>
+        </is>
+      </c>
+      <c r="B114" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c t="inlineStr" r="A115">
+        <is>
           <t xml:space="preserve">Violación De Mayor De 14 Años.</t>
         </is>
       </c>
-      <c r="B114" s="65">
+      <c r="B115" s="65">
         <v>2</v>
       </c>
     </row>
